--- a/biology/Zoologie/Cigogne_d'Abdim/Cigogne_d'Abdim.xlsx
+++ b/biology/Zoologie/Cigogne_d'Abdim/Cigogne_d'Abdim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cigogne_d%27Abdim</t>
+          <t>Cigogne_d'Abdim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ciconia abdimii
 La Cigogne d'Abdim ou Cigogne à ventre blanc (Ciconia abdimii), critère très voyant quand elle étend les ailes, est une espèce d'échassier de la famille des Ciconiidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cigogne_d%27Abdim</t>
+          <t>Cigogne_d'Abdim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une cigogne noire aux pattes grises, avec des genoux et des pieds rouges, un bec gris et le ventre blanc. Elle a la peau du visage rouge devant les yeux et la peau bleue lors de la saison de reproduction, près du bec. C'est la plus petite espèce de cigognes puisqu’elle mesure environ 73 cm pour une masse d'environ 1 kg. La femelle pond deux à trois œufs par an et est légèrement plus petite que le mâle.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cigogne_d%27Abdim</t>
+          <t>Cigogne_d'Abdim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cigogne d'Abdim se retrouve dans des espaces ouverts d'Afrique de l'Est, d'Éthiopie et d'Afrique du Sud.
 La cigogne d abdim aussi on la observer aussi au nord d Afrique au Tunisie pré du parc de ichkel
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cigogne_d%27Abdim</t>
+          <t>Cigogne_d'Abdim</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire se compose principalement de sauterelles, chenilles et autres insectes de grande taille, bien que ces oiseaux peuvent aussi manger de petits reptiles, des amphibiens, des souris, des crabes et des œufs.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cigogne_d%27Abdim</t>
+          <t>Cigogne_d'Abdim</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -614,7 +634,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cigogne_d%27Abdim</t>
+          <t>Cigogne_d'Abdim</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,7 +652,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a et b (en) Flemming Pagh Jensen, Knud Falk et Bo Svenning Petersen, « Migration routes and staging areas of Abdim's Storks Ciconia abdimii identified by satellite telemetry », Ostrich, vol. 77, nos 3-4,‎ 2006, p. 210-219 (lire en ligne, consulté le 6 mars 2019).
